--- a/data/hotels_by_city/Dallas/Dallas_shard_166.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_166.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rgilli190799</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Penny J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r519572247-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>My son got married  in cleburne  so of course  I used a wyndham  hotel to stay in, the days inn in Cleburne  was wonderful, the rooms were very clean upon arrival. We were there for 3 days the beds were very very comfortable the breakfast wasn't the best we ever had but it  there was sausage eggs waffles fruit toast it was good. Overall if I stay in Cleburne again I will recommend the Days end and I would stay there againMore</t>
   </si>
   <si>
+    <t>boneall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r572276190-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Daileen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r557514290-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Brian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r556690317-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>MadFin80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r547234333-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>12/14/2017</t>
   </si>
   <si>
+    <t>N5844BXdebbieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r542425281-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>MyRivers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r541797919-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>brendarV1800YR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r523493752-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>09/11/2017</t>
   </si>
   <si>
+    <t>loribJ4674CQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r522433912-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -333,6 +363,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>987cruzg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r515916938-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -348,6 +381,9 @@
     <t>Responded August 22, 2017</t>
   </si>
   <si>
+    <t>deborahsD8709QU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r501673072-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>Hotel was clean.  Our 7lb house trained yorkie was with us the whole trip, just being in the room to sleep with us.  I thought it was odd the housekeeper asked us what needed to be done to the room. I thought there was a normal standard of cleaning a room but i guess its different if you have a pet??  The location worked out really well for us.  Cool barbeque place across the street.  Fast food and gas stations minutes away.  If we need to head out that way, we would not hesitate to stay there again.More</t>
   </si>
   <si>
+    <t>296ildac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r495899640-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>Nicer on the outside furniture was run-down been disappointed lately with bookings how are these hotels screened?</t>
   </si>
   <si>
+    <t>jefff727</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r494329207-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>When staying at a budget hotel, you should still expect a certain level of comfort and cleanliness.  Common areas were dirty and smelled foul. Of the 10 rooms our group had, half also smelled bad.  Smoke permeated the whole building.  Owners and management were not accommodating for our group. If you are spending more than $40 for a room, you are getting ripped off.  Never again!</t>
   </si>
   <si>
+    <t>drobinson108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r487717554-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>Responded May 27, 2017</t>
   </si>
   <si>
+    <t>D445JFkristens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r484674811-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>Jamiemadrx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r478261013-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>K8036FEsamuelb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r476070252-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>04/16/2017</t>
   </si>
   <si>
+    <t>satxspurs700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r469208396-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -498,6 +555,9 @@
     <t>Avoid at all costs. The entire property smelled of smoke, and I got bed bug bites all over my arms, legs, and neck.More</t>
   </si>
   <si>
+    <t>Vickie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r468642180-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -507,6 +567,9 @@
     <t>03/19/2017</t>
   </si>
   <si>
+    <t>ronaldbH9493HW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r451100877-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -519,6 +582,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Mike101777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r438107666-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -537,6 +603,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>THEADVISOR098</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r434554320-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -552,6 +621,9 @@
     <t>Rooms are worn out had a bad smell in the room...looks like the carpet needed a wash, staff was not profesional and needed cosmetic work in the rooms...I won't stay here again I can get a room for the same price better quality and service somewhere else!!!</t>
   </si>
   <si>
+    <t>inajos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r433306622-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -564,6 +636,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>julielU8531BL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r421584610-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -582,6 +657,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>saintedcajun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r421472100-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -597,6 +675,9 @@
     <t>This was very disappointing.  When we got to the hotel, we paid in cash and they would not give a receipt, went to our deluxe suite with full kitchen and found that we were given a smaller (not delux), very dirty room with stains, sticky furniture and mold in the bathroom.  We talked to the manager about getting the correct room and was told she gave those rooms to her regulars.  When asked why they would guarantee a suite and then give a lesser room, she just said "Not my problem."  As a matter of fact, every thing we asked her about, she just kept saying "Not my problem."  I have included pictures of the stains on the sofa and carpet, dirty, sticky chairs, stains on the lamps, stains/burns on the bed, one very scary burned plug in, and the tub.  Besides the unsanitary room, the management was very unprofessional and very cold.  As for breakfast, the coffee machine and juice machine was out of order - apparently, that was not their problem either.  One last thing - pay with cash but require a cash receipt.  Another lady stood at the desk and had her card charged 3 times while they told her that it did not go through.  The lady kept showing the charges that were going through at her bank and they said she was lying.  I have never seen anything this unprofessional and rude in my life.More</t>
   </si>
   <si>
+    <t>brumleylis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r419972204-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -615,6 +696,9 @@
     <t>When we got there, I gave the girl my check card, she told me, I must be a dollar short in my account, it denied it, so I went out and called my bank, they said she cannot see your account, and she was trying to run a double transaction, and to tell her to void every thing and try it again, so as I was trying to explain all this to her, She started yelling at me, there was people all around, so I had my bank on the phone, and I ask her to let them explain it to her, she wasn't trying to get along, she kept yelling at me, so I finally paid cash, when I really wanted to pull her out from behind the counter, so when I got to my room, I called the 1-800 number, voiced my complaint, not that it is going to do any good, these people are all kin. The next day, we are out shopping and the manager calls me,I told him that I didn't want to discuss this matter on the phone, that when we got back, I would come to office, which I did, he kept saying he was sorry, I told him, she had no business behind that desk, and why was his system trying to do a double transaction? All he could say, was he was sorry, well I'm sorry, I won't stay there again!!!!More</t>
   </si>
   <si>
+    <t>Debbie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r413935012-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -627,6 +711,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>rogere672</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r384914782-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -645,6 +732,9 @@
     <t>Responded June 24, 2016</t>
   </si>
   <si>
+    <t>lewisruder60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r383086801-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -660,6 +750,9 @@
     <t>nice friendly service,hot breakfast and comfortable beds. they clean room every day even on extended stays.andbest thing is they r pets friendly. YES , I would stay hear again. thank you very much .........</t>
   </si>
   <si>
+    <t>jesswiley685</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r378222312-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -687,6 +780,9 @@
     <t>nice room and breakfast.my kids enjoy his pool a lot.staff also nice and good.housekeeping is excellent and service also excellent.we will definitely recommend all of family and friends to stay hear .More</t>
   </si>
   <si>
+    <t>jarodd652</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r367267860-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -699,6 +795,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>676sandyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r356359940-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -711,6 +810,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>T4063VBcharlesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r348616454-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -723,6 +825,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>wandac978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r342718724-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -750,6 +855,9 @@
     <t>The breakfast buffet was not stocked very well-out of sausage and eggs. Some pastries would have been nice.The rooms were very nice and the price was excellent. Overall I enjoyed the stay and would stay again.More</t>
   </si>
   <si>
+    <t>april279</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r338919275-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -774,6 +882,9 @@
     <t>i have family visit in town and stay this hotel the room is very nice and clean.goob hot breakfast and staff is very very friendly and sweat.they have pet friendly .i want stay again this place.i recommend for every one.More</t>
   </si>
   <si>
+    <t>651allenl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r332296567-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -786,6 +897,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>chrisgI6413AV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r320500463-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -804,6 +918,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Z5894JCjoels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r312969254-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -816,6 +933,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Sara W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r312838284-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -825,6 +945,9 @@
     <t>09/22/2015</t>
   </si>
   <si>
+    <t>DeniseBarkisRichter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r288673729-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -837,6 +960,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>karlab443</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r287465625-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -849,6 +975,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Elizabeth K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r278953484-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -864,6 +993,9 @@
     <t>After reading the reviews we were on the fence about staying here. But I am very glad we did. The staff is extremely friendly, the hotel is older but it is clean. Breakfast had eggs, sausage, and everything else on a normal hotel breakfast. Our room was upgraded to a suite with kitchenette sofa and king bed. Room was very clean! Bed very comfortable. Pet friendly. Glad we stayed and will definitely stay again.</t>
   </si>
   <si>
+    <t>Holliness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r267976502-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1036,9 @@
   </si>
   <si>
     <t>When I checked in the front desk clerk was very unwelcoming. I work for a sister hotel so I had a employee voucher he kept question me like I wasn't telling the truth after I finally got the keys to my room I asked if I could leave one at the front for my fiance. His response was "yeah,yeah". I also asked if they had any rooms available for the next night because I wasn't sure if we were going to need a second night he said that they were booked for tomorrow and he wouldn't know if he had a room available till 5 in the morning. I went online to make another reservation since the Days inn informed me they were book and wouldn't you know on hotels.com the days in had PLENTY of rooms available but since I was receiving a employee rate my business didn't matter!  Later that night I fiance checks in and the same man was rude to my fiance as well. My fiance said howdy and asked for a key before he could even say who the reservation name the front desk clerk hands him a key and say absolutely nothing to my fiance's greeting, Nothing! The room was cleaned decently but the restroom was less then perfect. The shower head was covered in soap scum, the shower rail was rusted almost coming off the wall, and the towels we so ruff. I...When I checked in the front desk clerk was very unwelcoming. I work for a sister hotel so I had a employee voucher he kept question me like I wasn't telling the truth after I finally got the keys to my room I asked if I could leave one at the front for my fiance. His response was "yeah,yeah". I also asked if they had any rooms available for the next night because I wasn't sure if we were going to need a second night he said that they were booked for tomorrow and he wouldn't know if he had a room available till 5 in the morning. I went online to make another reservation since the Days inn informed me they were book and wouldn't you know on hotels.com the days in had PLENTY of rooms available but since I was receiving a employee rate my business didn't matter!  Later that night I fiance checks in and the same man was rude to my fiance as well. My fiance said howdy and asked for a key before he could even say who the reservation name the front desk clerk hands him a key and say absolutely nothing to my fiance's greeting, Nothing! The room was cleaned decently but the restroom was less then perfect. The shower head was covered in soap scum, the shower rail was rusted almost coming off the wall, and the towels we so ruff. I work at a hotel as a front desk clerk and I know a guest shouldn't feel like they aren't wanted the second they check or check out. Needless to say that I would never stay hereMore</t>
+  </si>
+  <si>
+    <t>83keatonm</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r250569130-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
@@ -943,6 +1078,9 @@
 Bad parts of the stay was finding time for laundry. Other guests would wash their clothes and not come get them for hours. Slamming doors was a big problem for me. Very thin walls. We could hear the guests next door when they would talk to have their tv on. Constantly could hear the people above us walking. Sounded like a stampede running. View of the motel next door/behind hotel was a site for sore eyes. Carpet was DIRTY. Need to he cleaned!! None of us walked around without shoes or socks on. If we did our feet would be black on the bottom. Curtains smelled moldy. But this was because everytime it rained the part around the...My husband works on the road. The kids are still small so we go with him. We were quoted at $280 weekly rate and told if we were there over a month the taxes would be taken off and they were. We have 2 small children. We started out in a normal size double room. Less than a week of being there we were told by the manager that a room right next door had a kitchenette and he was more than happy to let us move. We moved to the new room and it was very spacious. Had a 2 burner stove, microwave &amp; regular size refrigerator. Staff was very friendly and accommodating. Helped us with all complaints of other guests. Bad parts of the stay was finding time for laundry. Other guests would wash their clothes and not come get them for hours. Slamming doors was a big problem for me. Very thin walls. We could hear the guests next door when they would talk to have their tv on. Constantly could hear the people above us walking. Sounded like a stampede running. View of the motel next door/behind hotel was a site for sore eyes. Carpet was DIRTY. Need to he cleaned!! None of us walked around without shoes or socks on. If we did our feet would be black on the bottom. Curtains smelled moldy. But this was because everytime it rained the part around the air conditioner/heater leaked. We told Mr. H he said maintenance would come and look at it and he never did. Bathtubs need to be cleaned more regularly. And shower curtains need to be changed out more. Ours had mold on it. The housekeeper came in and i told her and she changed it out for me. Cabinets weren't cleaned out good.  I had to clean them out before I could out anything in them. Maci, and the slimmer younger gentlemen that works overnights were very helpful. However the older woman who seemed to just work weekend mornings I could never find her when I needed her. And the other gentlemen who wore glasses played video games the whole time he worked was never very helpful. I would find myself standing at the front desk for sometimes 10 min at a time waiting for someone. This is a challenge with a 3yr old and infant. Would have been more helpful if there would have been someone at the desk at all times. I know I had a lot of complaints but the stay overall was decent. We would stay again if my husband was working in the area. More</t>
   </si>
   <si>
+    <t>marybG2424ER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r246608610-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -961,18 +1099,27 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>lindao361</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r246497100-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>246497100</t>
   </si>
   <si>
+    <t>265patsyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r246484405-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>246484405</t>
   </si>
   <si>
+    <t>507janisw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r246237474-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1129,9 @@
     <t>12/28/2014</t>
   </si>
   <si>
+    <t>Nancy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r241495473-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1144,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Diego7769</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r239229723-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1165,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>36duaner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r236853938-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1177,9 @@
     <t>10/28/2014</t>
   </si>
   <si>
+    <t>bluepgo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r234956063-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1198,9 @@
     <t>My husband and I were surprised that there was no clock in the room. The usual digital alarm clock was not on the table between the beds. Probably a first ever. However, the digital display on the microwave located  at the foot of the beds was glaringly obvious once we turned off the lights. My husband had to place a pair of shorts over it in order for us to sleep. The staff at the front desk was very friendly. We were worried about the noise from the employees working next door in the laundry room when we first entered our room, but they eventually left and did not wake us the next morning. The breakfast was cleared and gone when we left at 9:30 so I can't comment on its quality. Would stay there again, just in a different room. More</t>
   </si>
   <si>
+    <t>Kimberly S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r232971943-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1210,9 @@
     <t>10/06/2014</t>
   </si>
   <si>
+    <t>Garrett G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r231616879-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1231,9 @@
     <t>We were in Cleburne to take delivery of our new travel trailer from Fun Town RV. We were originally planning to stay at the LaQuinta inn as it was near the RV lot. When we arrived we found that the place was not very well lit and was kind of hard to get in and out of. We had passed the Days Inn a few blocks back and my wife had remarked that it looked nice. We went back to the Days Inn and asked to see a room before we checked in. They were more than happy to take us on a tour. We goin the room to be nicely furnished and most important it was clean. The staff was very nice and the rate was  $25 less than our previous choice. The only drawback was breakfast. It looked good but there were several people there so they had run out of a lot of stuff before we had a chance to eat. In their defense they were preparing more but we didn't want to wait so we went out. Good hotel great price. If you stay here make the half a block trip to the Mexicano Grill. We took a gamble on it due to the full parking lot and it was nothing short of awesome. Also, if you aren't into the continental breakfast there is a little place on west Henderson called the Chaf-In. It's a homestyle...We were in Cleburne to take delivery of our new travel trailer from Fun Town RV. We were originally planning to stay at the LaQuinta inn as it was near the RV lot. When we arrived we found that the place was not very well lit and was kind of hard to get in and out of. We had passed the Days Inn a few blocks back and my wife had remarked that it looked nice. We went back to the Days Inn and asked to see a room before we checked in. They were more than happy to take us on a tour. We goin the room to be nicely furnished and most important it was clean. The staff was very nice and the rate was  $25 less than our previous choice. The only drawback was breakfast. It looked good but there were several people there so they had run out of a lot of stuff before we had a chance to eat. In their defense they were preparing more but we didn't want to wait so we went out. Good hotel great price. If you stay here make the half a block trip to the Mexicano Grill. We took a gamble on it due to the full parking lot and it was nothing short of awesome. Also, if you aren't into the continental breakfast there is a little place on west Henderson called the Chaf-In. It's a homestyle cafe and the breakfast was great as  was the hospitality. I would definitely stay at this place if I were to find myself in Cleburne again. Thanks Cleburne, enjoyed it!More</t>
   </si>
   <si>
+    <t>Julia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r223362733-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1246,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Chris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r221167149-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1267,9 @@
     <t>Due to a mobility issue, I ask a lot of questions about the accessible rooms because they vary from hotel to hotel and do not meet the needs of specific disabilities.  In asking about the room at this hotel, I emphasized the need for rails in the shower, a seat in the shower, and rails at the toilet.  Most of the staff have no clue what the layout is of an accessible room.  I deal with balance issues but walk with a walker and do not have a lot of strength.  This hotel actually has the toilet in the center of the bathroom with no handrails at all.  There is the space for a wheelchair next to it but I do not use a wheelchair most of the time.  I asked if the other accessible room had rails and it did not either.  I had to leave and find another place.  If you are disabled but walk and not wheelchair bound, this hotel may not be for you.  The didn't even have a chair at the desk.  I realize they have a space there for a wheelchair but most disabled people are not wheelchair bound nor do they travel alone.  What was my husband supposed to sit on.....  All the room had was the bed and a toilet.  For the price, it beats the car but modify some of your other rooms to meet the needs of the many.More</t>
   </si>
   <si>
+    <t>Melanie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r220366119-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1285,9 @@
     <t xml:space="preserve">Hotel was clean and well-kept.  Only issue I had was noise late at night from the third floor room above (which I thought about mentioning to front desk but didn't).   </t>
   </si>
   <si>
+    <t>lakeflyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r218250954-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1309,9 @@
     <t>I stayed here with my hubby after a long day of outdoor activity. The hotel was easily accessed off the freeway. The young man who checked us in was very nice and efficient. Our room was a reserved suite and the size of it was massive. There was a couch/coffee table along with a king bed. The linens were clean, and the bed was comfortable. The room also had a dorm fridge and microwave. We did not notice any noise from the hallway and the noise from the road was pretty muted, especially with the wall unit fan on to circulate the air.My biggest knock on the property was the small things that were not well maintained. The bathroom door wouldn't shut at all because of the missing metal lock piece in the door frame. And the chain lock for the main door was broken, providing less security while in the room. Had the room elements been a bit more maintained, I would have rated this hotel higher. The people who work at this hotel are super, but the broken chain lock was really a safety issue for meMore</t>
   </si>
   <si>
+    <t>Isaac S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r217057529-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1333,9 @@
     <t>I am the head coach of a baseball team that was participating in a state baseball tournament in a neighboring city.  The Days Inn in Cleburne gave us the best deal. During our stay our team was treated with a high level of courtesy and great service. At one point Hemish the Hotel manager helped clean our teams' uniforms. We were a large group and wanted to have dinner together.  He allowed us to use the breakfast area and even set up a table to accommodate all of us. Overall it was a great experience and I over heard some of the best parents saying that this is the best  treatment they have ever received at a hotel.We are hoping to stay there again next year.More</t>
   </si>
   <si>
+    <t>Jim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r215612370-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1162,12 +1345,18 @@
     <t>07/15/2014</t>
   </si>
   <si>
+    <t>Shannon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r215506696-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>215506696</t>
   </si>
   <si>
+    <t>bkaloha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r210440691-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1375,9 @@
     <t>I was driving all night and called several hotels in the area to see if they would let me check in early, before noon, and Himesh Patel was the only one that let me.  He was very considerate, gracious, outgoing, young professional. I didn't get to the hotel till almost 12:30 but he turned the ac on high for me. The room was outstanding, full size refrigerator, flat screen tv w HBO and 100s of channels of other premium cable shows. Lots of pillows on the bed, granite everywhere, super clean, and under 75 for a Saturday hotel.  The next morning I awoke to sausage, omelets, waffle shaped like TX, several cereals, yogurt, muffins, Danish, oatmeal, fresh fruit and all the oj, cranberry juice you could drink. I ate so much, my stomach hurt and H let me check out two hours late. I can not say enough positive things about this hotel experience. More</t>
   </si>
   <si>
+    <t>Diana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r209952717-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1390,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Cary R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r208652149-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1405,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Mark K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r207197638-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1417,9 @@
     <t>05/26/2014</t>
   </si>
   <si>
+    <t>Suzy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r201009806-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1432,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Stanley P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r199706735-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1447,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Patrick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r186871089-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1459,9 @@
     <t>12/05/2013</t>
   </si>
   <si>
+    <t>Mario G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r184539691-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1474,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Robert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r182377680-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1489,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Lynn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r178628836-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1504,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Roossetter C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r176899232-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1525,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>jmwollu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r176226306-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1549,9 @@
     <t>I visit the area 2-3 times per month to visit my son who lives here and usually stay with family in the area...However, one month decided to stay in Cleburne and booked at the Days Inn Cleburne, TX.  TO my amazement, the property was well maintained, the staff was excellent, and allowed us to check in even earlier than posted check in time as we had already had about a 3 hour drive from Austin, TX.  I was even more pleased when we left the property we left behind a life vest for the child and called.  The staff found the item and placed at the front desk and it was held for us in safekeeping until we returned to the area about 2 weeks later.  This is a great property and love it so much that we are staying again this weekend.More</t>
   </si>
   <si>
+    <t>Alaina V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r175713180-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1561,9 @@
     <t>09/04/2013</t>
   </si>
   <si>
+    <t>Lydia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r173554575-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1354,6 +1582,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>deeppurple1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r173422654-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1603,9 @@
     <t>The Days Inn and Suites in Cleburne, Texas is a nice, comfortable place to stay. The room I had was freshly painted and very clean. The king bedroom was very comfortable and clean with a microwave and mini-fridge for your use. The air conditioner worked perfectly and was quiet. The bathroom was clean and had toiletries and coffee maker and hair dryer. The towels were clean, but scratchy. Plenty of hot water with good water pressure for the bath/shower combo.  I felt safe and secure in my room, as well as safety for my vehicle in a spacious parking lot which was well lit. The hotel was very quiet all night long and I got a very restful sleep.The staff was beyond friendly and very accommodating at check-in and check-out. A free breakfast is served in the morning, but I did not partake of this fare, so I have no comment on it. But, I can say that the breakfast room was very clean and orderly just looking at it from the front desk. I will definitely stay at this hotel again when in the area.More</t>
   </si>
   <si>
+    <t>Liv H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r172562369-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1621,9 @@
     <t>I actually expected it to be worse. The staff was great and that goes a long way. There were a few cosmetic issues but no real concerns. There was a mix up with our rooms but they switched it with no problems. We arrived before check in with a car sick two year old and they let us get her a bath in a vacant room because our room was not ready.  We had our whole soccer team plus others staying there. Close to everything in town. Breakfast was okay.</t>
   </si>
   <si>
+    <t>MattyP2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r172451369-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +1639,9 @@
     <t>My overall impression was this hotel is very clean! Grounds and pool area were well maintained. Carpet, bedding, and furniture in my room seemed to be new. Stayed a couple nights and staff was very pleasant. Good value for price and would definitely reccommend this hotel.</t>
   </si>
   <si>
+    <t>Curtis C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r169902571-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1651,9 @@
     <t>07/30/2013</t>
   </si>
   <si>
+    <t>rmw_911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r167709126-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +1663,9 @@
     <t>07/15/2013</t>
   </si>
   <si>
+    <t>Larra D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r166973657-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1675,9 @@
     <t>07/09/2013</t>
   </si>
   <si>
+    <t>tbeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r165940316-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +1687,9 @@
     <t>07/01/2013</t>
   </si>
   <si>
+    <t>elkmie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r164180622-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1705,9 @@
     <t>My experience was very good!  After driving for 18 hours we arrived at our destination earlier than expected and asked for an early check in.  We were offered an upgraded room at no additional expense and were given a prompt, no hassle check in.  I felt that the staff went out of their way to provide the maximum amount of comfort available.  The room was clean and quiet, only so much you can hope for, and we received it.  The difference was the staff.Thank you,Michael Turnbull</t>
   </si>
   <si>
+    <t>Andrew F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r163927398-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1462,6 +1717,9 @@
     <t>06/13/2013</t>
   </si>
   <si>
+    <t>TravelkidGeorgetown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r163485758-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1477,6 +1735,9 @@
     <t>Very good facility except for hall noise (slamming doors) and the loose and cracked floor tiles in the bedroom.</t>
   </si>
   <si>
+    <t>Barbara Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r161783170-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1489,6 +1750,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Thielen V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r161281915-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1498,6 +1762,9 @@
     <t>05/20/2013</t>
   </si>
   <si>
+    <t>IslaholicIslamujeres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r152865036-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1783,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>missmandybeth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r121341325-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1531,6 +1801,9 @@
     <t>The entire hallways smell like smoke and the odor seeps into the rooms.  They don't have separate smoking floors and they're all mixed in.  In our "guaranteed  non smoking room", we found an empty pack of cigarettes!  We had to haul our luggage back down to the car after getting our toiletries to keep our entire wardrobe from smelling like smoke the next day.  Service was very friendly but does not make up for the smell.  Yuck!</t>
   </si>
   <si>
+    <t>jeremy b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r118766319-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1825,9 @@
     <t>i stayed one night and i decided that i didnt want to stay there bc the room smelled and alot of workers was staying there. well i called around and i got a cheaper rate at a better holtel so i went down and told them and they told me i couldnt leave bc i told them i wanted 7 days.(in a rude voice) they said if i leave they will charge me for the 7 days anyway bc they gave me the weekly rate.well i was a nice guy and i  stayed and i was hoping things would get better but they didnt. after the 2ed night i noticed they didnt clean my room so i ask them if they could clean my room. they said they will only clean my room 2 times a week and they told me i can clean it. i stayed in alot of holtels and they all cleaned there rooms everyday. even if i stay weeks at a time... i can go on and on about more things that happened but to make it short ( it was a bad stay every night)More</t>
   </si>
   <si>
+    <t>Kash767799</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r80570929-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1570,6 +1846,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>tom2203</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r24979716-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1865,9 @@
   </si>
   <si>
     <t>February 2009</t>
+  </si>
+  <si>
+    <t>Jenn82TampaFl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d1147439-r24095234-Days_Inn_Suites_Cleburne_TX-Cleburne_Texas.html</t>
@@ -2108,43 +2390,47 @@
       <c r="A2" t="n">
         <v>57835</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>128715</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2168,50 +2454,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57835</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>41237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2233,54 +2523,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57835</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>128716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2304,35 +2598,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57835</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>128717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2340,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2364,51 +2662,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57835</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2426,7 +2725,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2439,22 +2738,22 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2462,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2486,49 +2785,50 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57835</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>128718</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2552,35 +2852,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57835</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>128719</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2588,10 +2892,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2612,51 +2916,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57835</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>128720</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2680,35 +2985,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57835</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>128721</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2716,10 +3025,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2740,49 +3049,50 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57835</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>128722</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2806,48 +3116,52 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57835</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>128723</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2869,56 +3183,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57835</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>128724</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2942,7 +3260,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2955,37 +3273,37 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2997,56 +3315,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="X15" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57835</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>128725</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3070,50 +3392,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57835</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>128726</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3131,48 +3457,52 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57835</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>128727</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3194,54 +3524,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="X18" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57835</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>128728</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3265,35 +3599,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57835</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>128729</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3301,10 +3639,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3325,36 +3663,37 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57835</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>128730</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3362,10 +3701,10 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3386,51 +3725,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57835</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>128731</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3452,41 +3792,45 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="X22" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Y22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57835</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>62060</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3494,10 +3838,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3518,36 +3862,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57835</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>128732</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3555,10 +3900,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3579,51 +3924,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57835</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>128733</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3647,50 +3993,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57835</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>128734</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3704,35 +4054,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57835</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>128735</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3740,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3764,51 +4118,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57835</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>128736</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3832,50 +4187,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57835</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>128737</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3893,41 +4252,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57835</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>128738</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3946,35 +4309,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57835</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3982,10 +4349,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4006,49 +4373,50 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57835</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>128739</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4070,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="X32" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="Y32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57835</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>128740</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4139,50 +4511,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57835</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>128741</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4198,41 +4574,45 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="X34" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57835</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>128742</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4240,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4264,36 +4644,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57835</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>128743</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4301,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4325,36 +4706,37 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57835</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>128744</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4362,10 +4744,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4386,51 +4768,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57835</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>128745</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4452,56 +4835,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="Y38" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57835</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>128746</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4519,41 +4906,45 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="X39" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="Y39" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57835</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>128747</v>
+      </c>
+      <c r="C40" t="s">
+        <v>288</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4561,10 +4952,10 @@
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4585,51 +4976,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57835</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>128748</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="J41" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="K41" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4653,48 +5045,52 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57835</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>128749</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="J42" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4716,41 +5112,45 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="X42" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57835</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>20614</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4758,10 +5158,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4782,36 +5182,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57835</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>128750</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4819,10 +5220,10 @@
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4843,36 +5244,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57835</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>128751</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4880,10 +5282,10 @@
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4904,51 +5306,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57835</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>35353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4962,50 +5365,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57835</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>128752</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="J47" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5025,7 +5432,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
@@ -5038,37 +5445,37 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5088,35 +5495,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57835</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>128753</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="J49" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5124,10 +5535,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5148,9 +5559,6 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5162,37 +5570,37 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="J50" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5206,50 +5614,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57835</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>128754</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="K51" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5273,35 +5685,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57835</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>128755</v>
+      </c>
+      <c r="C52" t="s">
+        <v>359</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="J52" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5309,10 +5725,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5333,36 +5749,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57835</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>128756</v>
+      </c>
+      <c r="C53" t="s">
+        <v>362</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="J53" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5370,10 +5787,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5394,36 +5811,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57835</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>128757</v>
+      </c>
+      <c r="C54" t="s">
+        <v>365</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="J54" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5431,10 +5849,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="O54" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5455,36 +5873,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57835</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>4898</v>
+      </c>
+      <c r="C55" t="s">
+        <v>369</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="J55" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5492,10 +5911,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -5516,51 +5935,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57835</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>128758</v>
+      </c>
+      <c r="C56" t="s">
+        <v>374</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="J56" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="K56" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5574,35 +5994,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57835</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>128759</v>
+      </c>
+      <c r="C57" t="s">
+        <v>381</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J57" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5610,10 +6034,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5634,51 +6058,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57835</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>128760</v>
+      </c>
+      <c r="C58" t="s">
+        <v>385</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="J58" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="K58" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="L58" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5702,35 +6127,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57835</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>17712</v>
+      </c>
+      <c r="C59" t="s">
+        <v>392</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5738,10 +6167,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O59" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5762,51 +6191,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57835</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>15905</v>
+      </c>
+      <c r="C60" t="s">
+        <v>396</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="J60" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5820,35 +6250,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57835</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>32643</v>
+      </c>
+      <c r="C61" t="s">
+        <v>403</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5856,10 +6290,10 @@
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5880,51 +6314,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57835</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>38038</v>
+      </c>
+      <c r="C62" t="s">
+        <v>408</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5944,50 +6379,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57835</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>23326</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="O63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6011,50 +6450,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57835</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>421</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="J64" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="O64" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6074,50 +6517,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57835</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>128761</v>
+      </c>
+      <c r="C65" t="s">
+        <v>429</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="J65" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="O65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6135,35 +6582,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57835</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>8359</v>
+      </c>
+      <c r="C66" t="s">
+        <v>437</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="J66" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6171,10 +6622,10 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6195,36 +6646,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57835</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>8322</v>
+      </c>
+      <c r="C67" t="s">
+        <v>441</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="J67" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6232,10 +6684,10 @@
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="O67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6256,42 +6708,43 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57835</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>128762</v>
+      </c>
+      <c r="C68" t="s">
+        <v>444</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="J68" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="L68" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6320,35 +6773,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57835</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>21680</v>
+      </c>
+      <c r="C69" t="s">
+        <v>451</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="J69" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6356,10 +6813,10 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6380,36 +6837,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57835</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>128763</v>
+      </c>
+      <c r="C70" t="s">
+        <v>456</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="J70" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6417,10 +6875,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6441,36 +6899,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57835</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>654</v>
+      </c>
+      <c r="C71" t="s">
+        <v>461</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="J71" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6478,10 +6937,10 @@
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="O71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6502,36 +6961,37 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57835</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>128764</v>
+      </c>
+      <c r="C72" t="s">
+        <v>465</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="J72" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6539,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="O72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6563,36 +7023,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57835</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>128765</v>
+      </c>
+      <c r="C73" t="s">
+        <v>470</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="J73" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6600,10 +7061,10 @@
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="O73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6624,36 +7085,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57835</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>9041</v>
+      </c>
+      <c r="C74" t="s">
+        <v>475</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="J74" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6661,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6685,36 +7147,37 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57835</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>64070</v>
+      </c>
+      <c r="C75" t="s">
+        <v>479</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="J75" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6722,10 +7185,10 @@
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6746,36 +7209,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57835</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C76" t="s">
+        <v>484</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="J76" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6783,10 +7247,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -6807,36 +7271,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57835</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C77" t="s">
+        <v>489</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
       <c r="J77" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -6844,10 +7309,10 @@
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="O77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -6858,51 +7323,52 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57835</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>128766</v>
+      </c>
+      <c r="C78" t="s">
+        <v>494</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="J78" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="K78" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="L78" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="O78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6926,50 +7392,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57835</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>128767</v>
+      </c>
+      <c r="C79" t="s">
+        <v>501</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="J79" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="K79" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="L79" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -6993,35 +7463,39 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57835</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>128768</v>
+      </c>
+      <c r="C80" t="s">
+        <v>509</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="J80" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7029,10 +7503,10 @@
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="O80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7053,51 +7527,52 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57835</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>88380</v>
+      </c>
+      <c r="C81" t="s">
+        <v>513</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="J81" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="K81" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="L81" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="O81" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7113,50 +7588,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57835</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>26697</v>
+      </c>
+      <c r="C82" t="s">
+        <v>520</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="J82" t="s">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="K82" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="L82" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="O82" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7180,50 +7659,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57835</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>128769</v>
+      </c>
+      <c r="C83" t="s">
+        <v>527</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="J83" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="K83" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="L83" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7247,50 +7730,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57835</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>128770</v>
+      </c>
+      <c r="C84" t="s">
+        <v>533</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="J84" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="K84" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="O84" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7304,35 +7791,39 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57835</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>128771</v>
+      </c>
+      <c r="C85" t="s">
+        <v>539</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="J85" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -7340,10 +7831,10 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7354,36 +7845,37 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57835</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>128772</v>
+      </c>
+      <c r="C86" t="s">
+        <v>543</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="J86" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7391,10 +7883,10 @@
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="O86" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7415,36 +7907,37 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57835</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>128773</v>
+      </c>
+      <c r="C87" t="s">
+        <v>547</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>467</v>
+        <v>549</v>
       </c>
       <c r="J87" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7452,10 +7945,10 @@
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -7476,36 +7969,37 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57835</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>128774</v>
+      </c>
+      <c r="C88" t="s">
+        <v>551</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
       <c r="J88" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7513,10 +8007,10 @@
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -7537,51 +8031,52 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57835</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>128775</v>
+      </c>
+      <c r="C89" t="s">
+        <v>555</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="J89" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="K89" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="L89" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7605,48 +8100,52 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57835</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>381</v>
+      </c>
+      <c r="C90" t="s">
+        <v>561</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>478</v>
+        <v>563</v>
       </c>
       <c r="J90" t="s">
-        <v>479</v>
+        <v>564</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7670,50 +8169,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57835</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>128776</v>
+      </c>
+      <c r="C91" t="s">
+        <v>565</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
       <c r="J91" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="K91" t="s">
-        <v>483</v>
+        <v>569</v>
       </c>
       <c r="L91" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -7737,35 +8240,39 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57835</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>29550</v>
+      </c>
+      <c r="C92" t="s">
+        <v>571</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="J92" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -7773,10 +8280,10 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="O92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -7797,36 +8304,37 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57835</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>128777</v>
+      </c>
+      <c r="C93" t="s">
+        <v>576</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
       <c r="J93" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -7834,10 +8342,10 @@
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -7858,51 +8366,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57835</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>128778</v>
+      </c>
+      <c r="C94" t="s">
+        <v>580</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
       <c r="J94" t="s">
-        <v>494</v>
+        <v>583</v>
       </c>
       <c r="K94" t="s">
-        <v>495</v>
+        <v>584</v>
       </c>
       <c r="L94" t="s">
-        <v>496</v>
+        <v>585</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>497</v>
+        <v>586</v>
       </c>
       <c r="O94" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -7926,41 +8435,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>496</v>
+        <v>585</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57835</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>128779</v>
+      </c>
+      <c r="C95" t="s">
+        <v>587</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="J95" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="K95" t="s">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="L95" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
@@ -7989,50 +8502,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57835</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>128780</v>
+      </c>
+      <c r="C96" t="s">
+        <v>593</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>503</v>
+        <v>594</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="J96" t="s">
-        <v>505</v>
+        <v>596</v>
       </c>
       <c r="K96" t="s">
-        <v>506</v>
+        <v>597</v>
       </c>
       <c r="L96" t="s">
-        <v>507</v>
+        <v>598</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="O96" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -8056,50 +8573,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57835</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>128781</v>
+      </c>
+      <c r="C97" t="s">
+        <v>601</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="J97" t="s">
-        <v>512</v>
+        <v>604</v>
       </c>
       <c r="K97" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="L97" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="O97" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8123,50 +8644,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57835</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>128782</v>
+      </c>
+      <c r="C98" t="s">
+        <v>608</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="J98" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="K98" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="L98" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O98" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8190,50 +8715,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57835</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>128783</v>
+      </c>
+      <c r="C99" t="s">
+        <v>615</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="J99" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="K99" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="L99" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="O99" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8257,7 +8786,7 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
